--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-018 Conduit Pits (In-situ) - Rev.2.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-018 Conduit Pits (In-situ) - Rev.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15AE9C0-05CF-43D0-A647-5384075457D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0E07B-3B93-4186-966D-644B0453F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="1755" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -67,90 +67,18 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance check</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-018 Conduit Pits (In-situ) - Rev.2</t>
   </si>
   <si>
@@ -160,19 +88,349 @@
     <t>3.0 Cast in-situ structures</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9 - </t>
-  </si>
-  <si>
     <t>4.0 Finishing Works and Backfilling</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5 - </t>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 - Lot Traceability </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 7.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prepare a lot map for traceability of the work area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1.3 - Underlying Lot Conformance</t>
+  </si>
+  <si>
+    <t>Ref docs - Underlying Lot ITP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Underlying services and/or assets have been installed prior to commencing works over and/or above. Refer underlying lot ITP(s)</t>
+  </si>
+  <si>
+    <t>1.4 - Set out</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Setout pits to the location and levels on the drawings</t>
+  </si>
+  <si>
+    <t>3.102.1 - Excavation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref docs - Spec. 0002 General Electrical [Cl 6.6] </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Excavate to the depths and widths of the design drawings</t>
+  </si>
+  <si>
+    <t>2.2 - Place Bedding</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical [Cl 6.11] Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits to be installed on a 100mm thick compacted sand base.</t>
+  </si>
+  <si>
+    <t>○ Alternatively, a 150mm thick 20mm crushed rock layer can be used if the pit floor is below the water table.'</t>
+  </si>
+  <si>
+    <t>Material Dockets</t>
+  </si>
+  <si>
+    <t>2.3 - Blinding</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Blinding (15MPa) for Pit Bases to be a 50mm thick mass concrete layer.</t>
+  </si>
+  <si>
+    <t>3.1 - Formwork (Base)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.3] Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Formwork installed as per drawings and adequately supported. </t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Before Placing Concrete</t>
+  </si>
+  <si>
+    <t>○ Completed formwork to be inspected by the Superintendent prior to concrete placement</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>Pre-pour inspection</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>3.2 - Steel reinforcement (Base)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.5], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Reinforcement installed as per drawings, ensuring sufficient lap length and cover is achieved on all bars.</t>
+  </si>
+  <si>
+    <t>○ Concrete pre-pour inspection complete.</t>
+  </si>
+  <si>
+    <t>3.3 - Formwork (Walls)</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.3], Drawings</t>
+  </si>
+  <si>
+    <t>3.4 - Steel reinforcement (Walls)</t>
+  </si>
+  <si>
+    <t>3.5 - Bell-mouths</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical [Cl 6.11]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All conduit entries are to be fitted with proprietary bell-mouths installed flush with the pit wall as per manufacturer specifications</t>
+  </si>
+  <si>
+    <t>3.73.6 - Concrete supply and placement</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.8, 4.9, 4.10, 4.11], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete strength of cast in-situ units shall be min. Grade N32 or as otherwise stated on drawings.</t>
+  </si>
+  <si>
+    <t>Concrete temp at discharge (°C) || Max elapsed time (hours)</t>
+  </si>
+  <si>
+    <t>10-24 || 2.00</t>
+  </si>
+  <si>
+    <t>24-27 || 1.50</t>
+  </si>
+  <si>
+    <t>27-30 || 1.00</t>
+  </si>
+  <si>
+    <t>30-32 || 0.75</t>
+  </si>
+  <si>
+    <t>○ Ensure the temperature of freshly mixed concrete is maintained in between 5°C and 35°C. Ensure elapsed time between batching and discharge of the mix complies with the below table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Concrete placed in layers ≤ 300mm thick and adequately vibrated avoiding over-vibration. </t>
+  </si>
+  <si>
+    <t>– – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>Delivery dockets</t>
+  </si>
+  <si>
+    <t>3.7 - Concrete sampling</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The nominal rate of sampling shall be taken:</t>
+  </si>
+  <si>
+    <t>(a) Compressive strength: One set per pour or as otherwise directed by the Superintendent;</t>
+  </si>
+  <si>
+    <t>(b) Slump: One per batch of concrete</t>
+  </si>
+  <si>
+    <t>Concrete pour record</t>
+  </si>
+  <si>
+    <t>3.8 - Concrete testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Average compressive strength at 28 days meets minimum design requirements. Slump within tolerances specified in AS 1379</t>
+  </si>
+  <si>
+    <t>Table 5.1 PERMISSIBLE TOLERANCE ON SLUMP</t>
+  </si>
+  <si>
+    <t>Specified Slump (mm) || Tolerance (mm)</t>
+  </si>
+  <si>
+    <t>&lt;60 || ± 10</t>
+  </si>
+  <si>
+    <t>≥60 ≤80 || ± 15</t>
+  </si>
+  <si>
+    <t>&gt;80 ≤110 || ± 20</t>
+  </si>
+  <si>
+    <t>&gt;110 ≤150 || ± 30</t>
+  </si>
+  <si>
+    <t>&gt;150 || ± 40</t>
+  </si>
+  <si>
+    <t>Testing to be in a NATA accredited test facility</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>3.9 - Curing</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0319 Minor Concrete Works [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - From completion of finishing; cure continuously with either curing compound, wet curing or form retention for a min period of 7 days or as directed by the Superintendent.</t>
+  </si>
+  <si>
+    <t>4.1 - Pit Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Earthworks [Cl 3.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits to be backfilled in 150mm thick layers for a horizontal distance of 300mm as per RFI-069</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Material Test Report</t>
+  </si>
+  <si>
+    <t>○ Backfill to be with a thermally rated compacted sand as per the design drawings up until the top of the conduit bank. The remaining backfill above the conduits to be Select fill for material within 1.5m of pavement and General Fill below 1.5m deep.</t>
+  </si>
+  <si>
+    <t>○ Select backfill material to be a granular material with a maximum particle size of 50mm and a PI between 2 &amp; 12</t>
+  </si>
+  <si>
+    <t>○ Backfill shall not commence until concrete compressive strength reaches 15MPa unless approved otherwise by superintendent</t>
+  </si>
+  <si>
+    <t>4.2 - Compaction - Backfill</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.6], Spec. 1112 Earthworks [Cl 4.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Each layer to be compacted to a density that is no less than the density of the existing adjacent material. If the existing material density is unknown, minimum relative compaction to be:</t>
+  </si>
+  <si>
+    <t>95% for pit bedding and conduit embedment</t>
+  </si>
+  <si>
+    <t>97% for select fill areas</t>
+  </si>
+  <si>
+    <t>92% for general fill areas</t>
+  </si>
+  <si>
+    <t>4.3 - Access Covers &amp; Grates</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1354 Stormwater Drainage Structures [Cl 3.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Access covers, grates and frames to be installed as per AS 3996</t>
+  </si>
+  <si>
+    <t>4.4 - Step Irons</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pits deeper than 600 to be fitted with galvanised plastic-coated step irons as per AS1657</t>
+  </si>
+  <si>
+    <t>4.5 - Brass Marker Plates</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0002 General Electrical Installation [Cl 6.11], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Brass marker plates to be installed at each pit showing cable/conduit routes, contact phone number, organisation &amp; drawing number.</t>
+  </si>
+  <si>
+    <t>5.1 - Survey Report</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.13]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - An as-built survey of the drainage system been completed to ensure all structures are within construction tolerances.</t>
+  </si>
+  <si>
+    <t>Plan: +/- 200mm</t>
+  </si>
+  <si>
+    <t>Level: +/- 20mm</t>
+  </si>
+  <si>
+    <t>Survey report</t>
+  </si>
+  <si>
+    <t>5.2 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot.</t>
   </si>
 </sst>
 </file>
@@ -315,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +773,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +943,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,6 +958,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1111,24 +1381,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1144,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,7 +1433,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,15 +1449,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,42 +1508,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,31 +1548,34 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,26 +1583,26 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,31 +1618,31 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
+      <c r="B32" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,26 +1650,26 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,23 +1685,23 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>36</v>
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,42 +1752,39 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>28</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,15 +1792,18 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>20</v>
+      <c r="A52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,50 +1811,47 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,23 +1875,26 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>33</v>
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,18 +1902,15 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,31 +1926,31 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>32</v>
+      <c r="A69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,18 +1958,15 @@
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,15 +1990,18 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>31</v>
+      <c r="A76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,18 +2017,15 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,31 +2033,31 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>36</v>
+      <c r="A82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +2065,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,18 +2073,15 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +2089,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,23 +2097,26 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>36</v>
+      <c r="A89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>46</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,7 +2124,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,50 +2132,47 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>12</v>
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>20</v>
+      <c r="A95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>36</v>
+      <c r="A96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>37</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1919,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,18 +2188,15 @@
         <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,15 +2204,18 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>20</v>
+      <c r="A102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,15 +2223,15 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>38</v>
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,58 +2247,58 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>12</v>
+      <c r="A107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>19</v>
+      <c r="A108" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>20</v>
+      <c r="A109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>36</v>
+      <c r="B110" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>47</v>
+      <c r="A111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>15</v>
+      <c r="A112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,18 +2306,15 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>12</v>
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,15 +2322,15 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>20</v>
+      <c r="A116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,23 +2338,23 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>48</v>
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>34</v>
+      <c r="A119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,18 +2370,15 @@
         <v>13</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>12</v>
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,15 +2402,15 @@
         <v>13</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>35</v>
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,26 +2418,26 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>16</v>
+      <c r="A128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>12</v>
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,23 +2461,23 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>39</v>
+      <c r="A133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>15</v>
+      <c r="A134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,18 +2485,15 @@
         <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>12</v>
+      <c r="A136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,23 +2509,26 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>36</v>
+      <c r="A139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>49</v>
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2281,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,34 +2544,31 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>12</v>
+      <c r="A143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>20</v>
+      <c r="A145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,15 +2576,15 @@
         <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>50</v>
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2592,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,18 +2600,15 @@
         <v>13</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>12</v>
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,23 +2632,23 @@
         <v>13</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>40</v>
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>41</v>
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,18 +2664,15 @@
         <v>13</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>12</v>
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,15 +2680,18 @@
         <v>13</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>20</v>
+      <c r="A160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,15 +2699,15 @@
         <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>42</v>
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,34 +2723,31 @@
         <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>12</v>
+      <c r="A165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>19</v>
+      <c r="A166" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>20</v>
+      <c r="B167" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,10 +2755,619 @@
         <v>13</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>